--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>127000.00</t>
+          <t>130281.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3785898.71</t>
+          <t>3806709.26</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>578</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6155777.97</t>
+          <t>6190211.97</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1015840.46</t>
+          <t>1028987.72</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>9022129.17</t>
+          <t>9105363.67</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -9325,12 +9325,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>9884061.79</t>
+          <t>9920395.79</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -9661,12 +9661,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2229525.45</t>
+          <t>2239125.45</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3420751.80</t>
+          <t>3465751.80</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>764165.53</t>
+          <t>809165.53</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10963,12 +10963,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>773127.57</t>
+          <t>818127.57</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -11299,12 +11299,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>11888409.68</t>
+          <t>11976409.68</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
